--- a/matchCardGame-vetebrate/cards.xlsx
+++ b/matchCardGame-vetebrate/cards.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6881D9B-B396-4645-AFC1-9E94E5A3FEAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554583FB-E1DD-478F-AA84-9CF314BF7092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+      <selection activeCell="C36" sqref="C1:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -961,18 +961,10 @@
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" t="str">
-        <f t="shared" ref="C3:C38" si="1">""""&amp;A37&amp;""": """&amp;B37&amp;""","</f>
-        <v>"": "",</v>
-      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
-      <c r="C38" t="str">
-        <f t="shared" si="1"/>
-        <v>"": "",</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
